--- a/src/main/resources/Data/Data1.xlsx
+++ b/src/main/resources/Data/Data1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectosSemillero\AutomatizacionOccidente\AutomatizacionHaceb\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E951989F-52FF-47AA-A121-760B5C6B2BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD06699-0F0C-4269-B868-6F086E474939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A52DA452-4001-4002-A91F-91328709BD5E}"/>
+    <workbookView xWindow="-28920" yWindow="-900" windowWidth="29040" windowHeight="15720" xr2:uid="{A52DA452-4001-4002-A91F-91328709BD5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Credenciales" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <t>Bogotá</t>
   </si>
   <si>
-    <t>pruebas20@yomail.com</t>
+    <t>pruebas2582a@yomail.com</t>
   </si>
 </sst>
 </file>
